--- a/biology/Zoologie/Eugène_Boullet/Eugène_Boullet.xlsx
+++ b/biology/Zoologie/Eugène_Boullet/Eugène_Boullet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Boullet</t>
+          <t>Eugène_Boullet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Joseph Eugène Anatole Boullet, né le 1er juillet 1847 à Acheux et mort en 1923, est un naturaliste, entomologiste et collectionneur français.
 Il a décrit avec Paul Mabille un grand nombre d'Hesperiidae des tropiques.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Boullet</t>
+          <t>Eugène_Boullet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa collaboration avec Le Cerf, entomologiste au Muséum national d'histoire naturelle a commencé en 1905 avec l'approbation de Bouvier. Boullet payait un technicien, chargé exclusivement de la préparation des papillons; tous les mois, Le Cerf envoyait à Corbie des spécimens de la famille qui était en train d'être classée. Ils lui étaient rendus à Paris lorsque Boullet s'y rendait tous les mois pendant deux ou trois jours[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa collaboration avec Le Cerf, entomologiste au Muséum national d'histoire naturelle a commencé en 1905 avec l'approbation de Bouvier. Boullet payait un technicien, chargé exclusivement de la préparation des papillons; tous les mois, Le Cerf envoyait à Corbie des spécimens de la famille qui était en train d'être classée. Ils lui étaient rendus à Paris lorsque Boullet s'y rendait tous les mois pendant deux ou trois jours.
 La totalité de la collection de  Boullet concernant ses insectes du monde, surtout des papillons (25 000 lépidoptères, une collection exceptionnellement riche d'Hesperiidae et de Papilionidae; Heliconiinae et Satyridae et comprenant nombre de rares et précieux Morpho, Agrias et Ornithoptera) est léguée à sa mort (accompagnée d'une somme importante pour son entretien) au Muséum national d'Histoire naturelle de Paris where. Ce même musée conserve aussi ses collections de Coleoptera, de Diptera et d'Hymenoptera.
 Boullet fit de nombreux voyages en Europe et en  Afrique du Nord prenant des photographies-stéréo de sites archéologiques. Il maintenait à Corbie un orchidarium exceptionnel comprenant 4 000 espèces, cultivars et hybrides et une serre de Nymphaeaceae avec notamment des nénuphars de Victoria. C'était aussi un collectionneur de timbres renommé (39 000 pièces).
 Eugène Boullet était membre de la Société entomologique de France. Une rue de Corbie lui est dédiée.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Boullet</t>
+          <t>Eugène_Boullet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Quelques œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Avec Le Cerf
 Boullet, E. et Le Cerf, F. L. (1912): Catalogue de la collection de lépidoptères du Muséum national d'Histoire naturelle de Paris. I. Famille Papilionidae, Imprimérie Nationale, Paris pdf
